--- a/Team-Data/2015-16/1-23-2015-16.xlsx
+++ b/Team-Data/2015-16/1-23-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -681,22 +748,22 @@
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J2" t="n">
         <v>83.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M2" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O2" t="n">
         <v>16</v>
@@ -705,16 +772,16 @@
         <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
         <v>25.6</v>
@@ -723,16 +790,16 @@
         <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA2" t="n">
         <v>18.5</v>
@@ -741,10 +808,10 @@
         <v>102.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -759,13 +826,13 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT2" t="n">
         <v>29</v>
@@ -804,19 +871,19 @@
         <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>16</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.512</v>
+        <v>0.523</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,7 +933,7 @@
         <v>38.7</v>
       </c>
       <c r="J3" t="n">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
         <v>0.434</v>
@@ -881,58 +948,58 @@
         <v>0.329</v>
       </c>
       <c r="O3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>11.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T3" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
         <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -956,16 +1023,16 @@
         <v>7</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>6</v>
@@ -974,22 +1041,22 @@
         <v>16</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.256</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,34 +1115,34 @@
         <v>37.6</v>
       </c>
       <c r="J4" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="O4" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="P4" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T4" t="n">
         <v>43.2</v>
@@ -1084,10 +1151,10 @@
         <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1099,16 +1166,16 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.9</v>
+        <v>-8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>28</v>
@@ -1120,25 +1187,25 @@
         <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1147,7 +1214,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1215,55 +1282,55 @@
         <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.488</v>
+        <v>0.465</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M5" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
         <v>12.9</v>
@@ -1272,13 +1339,13 @@
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
         <v>20.7</v>
@@ -1287,19 +1354,19 @@
         <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1311,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM5" t="n">
         <v>3</v>
@@ -1323,22 +1390,22 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,10 +1420,10 @@
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J6" t="n">
-        <v>88.3</v>
+        <v>88</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="T6" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
         <v>6.2</v>
@@ -1460,19 +1527,19 @@
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1481,19 +1548,19 @@
         <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>3</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1502,19 +1569,19 @@
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>1</v>
@@ -1523,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1541,13 +1608,13 @@
         <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.725</v>
+        <v>0.732</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J7" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L7" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="M7" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="O7" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.724</v>
+        <v>0.728</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="T7" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>6.8</v>
@@ -1639,19 +1706,19 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA7" t="n">
         <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD7" t="n">
         <v>29</v>
@@ -1675,22 +1742,22 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="n">
         <v>5</v>
       </c>
-      <c r="AM7" t="n">
-        <v>6</v>
-      </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>24</v>
@@ -1699,34 +1766,34 @@
         <v>9</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>26</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
         <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.545</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
         <v>84.40000000000001</v>
@@ -1785,34 +1852,34 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R8" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U8" t="n">
         <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
@@ -1824,22 +1891,22 @@
         <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1851,19 +1918,19 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -1872,37 +1939,37 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -1955,91 +2022,91 @@
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J9" t="n">
         <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M9" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.2</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,22 +2115,22 @@
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
         <v>16</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>10</v>
@@ -2072,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.535</v>
       </c>
       <c r="H10" t="n">
         <v>48.8</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
         <v>88.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.645</v>
+        <v>0.652</v>
       </c>
       <c r="R10" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="S10" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T10" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="U10" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
         <v>3.8</v>
@@ -2188,43 +2255,43 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>9</v>
@@ -2233,10 +2300,10 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2254,10 +2321,10 @@
         <v>27</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX10" t="n">
         <v>27</v>
@@ -2266,10 +2333,10 @@
         <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="J11" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.488</v>
+        <v>0.486</v>
       </c>
       <c r="L11" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M11" t="n">
         <v>30.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P11" t="n">
         <v>23.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
         <v>36.3</v>
       </c>
       <c r="T11" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="U11" t="n">
         <v>28.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>8.300000000000001</v>
@@ -2370,19 +2437,19 @@
         <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -2486,70 +2553,70 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.523</v>
+        <v>0.511</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.447</v>
+        <v>0.444</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P12" t="n">
         <v>28.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.715</v>
+        <v>0.714</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>21.8</v>
@@ -2558,34 +2625,34 @@
         <v>22.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.9</v>
+        <v>104.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2609,10 +2676,10 @@
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2624,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -2683,31 +2750,31 @@
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J13" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L13" t="n">
         <v>8.4</v>
       </c>
       <c r="M13" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
@@ -2719,22 +2786,22 @@
         <v>43.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
@@ -2746,10 +2813,10 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2761,16 +2828,16 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL13" t="n">
         <v>14</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
@@ -2779,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2788,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2803,13 +2870,13 @@
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.643</v>
+        <v>0.651</v>
       </c>
       <c r="H14" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="O14" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="R14" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="M14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="O14" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P14" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.696</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9.4</v>
-      </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
         <v>42.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>13</v>
@@ -2910,7 +2977,7 @@
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
@@ -2919,16 +2986,16 @@
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2940,16 +3007,16 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
@@ -2994,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>1</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3050,64 +3117,64 @@
         <v>35.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.2</v>
+        <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.413</v>
+        <v>0.411</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M15" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.311</v>
+        <v>0.308</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V15" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-10.3</v>
+        <v>-9.9</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3128,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>30</v>
@@ -3137,40 +3204,40 @@
         <v>22</v>
       </c>
       <c r="AM15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
         <v>30</v>
       </c>
       <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
         <v>10</v>
       </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3179,13 +3246,13 @@
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
       </c>
       <c r="BC15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3229,22 +3296,22 @@
         <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
         <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.336</v>
+        <v>0.328</v>
       </c>
       <c r="O16" t="n">
         <v>20</v>
@@ -3253,25 +3320,25 @@
         <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V16" t="n">
         <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3280,19 +3347,19 @@
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA16" t="n">
         <v>21.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>21.4</v>
-      </c>
       <c r="AB16" t="n">
-        <v>97</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>8</v>
@@ -3301,19 +3368,19 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,19 +3389,19 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>30</v>
@@ -3346,16 +3413,16 @@
         <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>22</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.512</v>
+        <v>0.523</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,73 +3481,73 @@
         <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K17" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L17" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
         <v>19.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.322</v>
+        <v>0.329</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.732</v>
+        <v>0.737</v>
       </c>
       <c r="R17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T17" t="n">
         <v>42.8</v>
       </c>
       <c r="U17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V17" t="n">
         <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
         <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -3504,10 +3571,10 @@
         <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
@@ -3519,10 +3586,10 @@
         <v>25</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>26</v>
@@ -3537,19 +3604,19 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ17" t="n">
         <v>1</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3593,40 +3660,40 @@
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P18" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
         <v>23.4</v>
@@ -3635,25 +3702,25 @@
         <v>15.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
         <v>5.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.4</v>
+        <v>-4.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3662,31 +3729,31 @@
         <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>19</v>
@@ -3695,13 +3762,13 @@
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>27</v>
@@ -3713,25 +3780,25 @@
         <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>24</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
-      </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3775,49 +3842,49 @@
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L19" t="n">
         <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P19" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="R19" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T19" t="n">
         <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.6</v>
@@ -3826,28 +3893,28 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>21</v>
@@ -3889,25 +3956,25 @@
         <v>23</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -3942,118 +4009,118 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.39</v>
+        <v>0.357</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
         <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.806</v>
+        <v>0.8</v>
       </c>
       <c r="R20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S20" t="n">
         <v>33.5</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
         <v>4.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.7</v>
+        <v>102</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
         <v>24</v>
       </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
         <v>13</v>
       </c>
-      <c r="AL20" t="n">
-        <v>12</v>
-      </c>
       <c r="AM20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN20" t="n">
         <v>13</v>
       </c>
-      <c r="AN20" t="n">
-        <v>7</v>
-      </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4062,16 +4129,16 @@
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
@@ -4080,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY20" t="n">
         <v>10</v>
@@ -4089,13 +4156,13 @@
         <v>20</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -4127,49 +4194,49 @@
         <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.467</v>
+        <v>0.489</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
         <v>21.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T21" t="n">
         <v>43.6</v>
@@ -4178,49 +4245,49 @@
         <v>20.5</v>
       </c>
       <c r="V21" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z21" t="n">
         <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4232,52 +4299,52 @@
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW21" t="n">
         <v>30</v>
       </c>
       <c r="AX21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.733</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4327,7 +4394,7 @@
         <v>85.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
         <v>7.8</v>
@@ -4342,10 +4409,10 @@
         <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
@@ -4360,7 +4427,7 @@
         <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>7.8</v>
@@ -4369,22 +4436,22 @@
         <v>6.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4402,16 +4469,16 @@
         <v>3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4420,10 +4487,10 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,19 +4505,19 @@
         <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J23" t="n">
-        <v>85.40000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>8.1</v>
@@ -4551,31 +4618,31 @@
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC23" t="n">
         <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG23" t="n">
         <v>18</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>4</v>
@@ -4584,19 +4651,19 @@
         <v>7</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,31 +4672,31 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT23" t="n">
         <v>12</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
         <v>14</v>
@@ -4638,10 +4705,10 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J24" t="n">
         <v>82</v>
       </c>
       <c r="K24" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L24" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.33</v>
       </c>
       <c r="O24" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P24" t="n">
         <v>22.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.671</v>
+        <v>0.675</v>
       </c>
       <c r="R24" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S24" t="n">
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>6.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB24" t="n">
         <v>94.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4763,13 +4830,13 @@
         <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -4793,19 +4860,19 @@
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT24" t="n">
         <v>26</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4814,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA24" t="n">
         <v>23</v>
@@ -4823,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -4855,13 +4922,13 @@
         <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.318</v>
+        <v>0.295</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4870,67 +4937,67 @@
         <v>37.9</v>
       </c>
       <c r="J25" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
         <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
         <v>42.8</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>16.6</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.8</v>
+        <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4945,16 +5012,16 @@
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="n">
         <v>7</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>6</v>
       </c>
       <c r="AM25" t="n">
         <v>10</v>
@@ -4963,16 +5030,16 @@
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
@@ -4981,7 +5048,7 @@
         <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4993,16 +5060,16 @@
         <v>26</v>
       </c>
       <c r="AY25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB25" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>14</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5049,13 +5116,13 @@
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J26" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
@@ -5064,49 +5131,49 @@
         <v>28.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O26" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
         <v>21.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC26" t="n">
         <v>-1.4</v>
@@ -5118,7 +5185,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
         <v>22</v>
@@ -5127,10 +5194,10 @@
         <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5151,13 +5218,13 @@
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW26" t="n">
         <v>27</v>
@@ -5181,13 +5248,13 @@
         <v>27</v>
       </c>
       <c r="BA26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5219,43 +5286,43 @@
         <v>42</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.476</v>
+        <v>0.452</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J27" t="n">
-        <v>85.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.461</v>
       </c>
       <c r="L27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O27" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R27" t="n">
         <v>10.8</v>
@@ -5264,13 +5331,13 @@
         <v>34.5</v>
       </c>
       <c r="T27" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U27" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
@@ -5282,31 +5349,31 @@
         <v>5.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
@@ -5315,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="AK27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,25 +5391,25 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
         <v>6</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5354,22 +5421,22 @@
         <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>18</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>3</v>
       </c>
       <c r="BC27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
         <v>38</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.884</v>
+        <v>0.864</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.491</v>
       </c>
       <c r="L28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y28" t="n">
         <v>3.6</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
@@ -5524,13 +5591,13 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.643</v>
+        <v>0.651</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
@@ -5598,67 +5665,67 @@
         <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.798</v>
+        <v>0.795</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U29" t="n">
         <v>18.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W29" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
         <v>5.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC29" t="n">
         <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5682,34 +5749,34 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV29" t="n">
         <v>7</v>
@@ -5721,13 +5788,13 @@
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.452</v>
+        <v>0.442</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
@@ -5780,46 +5847,46 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P30" t="n">
         <v>23.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
         <v>31.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
@@ -5828,25 +5895,25 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA30" t="n">
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
         <v>14</v>
@@ -5873,13 +5940,13 @@
         <v>6</v>
       </c>
       <c r="AO30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP30" t="n">
         <v>12</v>
       </c>
-      <c r="AP30" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5888,22 +5955,22 @@
         <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX30" t="n">
         <v>13</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="AY30" t="n">
         <v>14</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>21</v>
@@ -5915,7 +5982,7 @@
         <v>25</v>
       </c>
       <c r="BC30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
         <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.475</v>
+        <v>0.488</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J31" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
         <v>8.9</v>
       </c>
       <c r="M31" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="O31" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R31" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>31</v>
+      </c>
+      <c r="T31" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="U31" t="n">
         <v>24</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="O31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="R31" t="n">
-        <v>9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="T31" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="U31" t="n">
-        <v>24.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
@@ -6004,43 +6071,43 @@
         <v>9</v>
       </c>
       <c r="X31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>9</v>
@@ -6061,22 +6128,22 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
         <v>30</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
@@ -6088,16 +6155,16 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-23-2015-16</t>
+          <t>2016-01-23</t>
         </is>
       </c>
     </row>
